--- a/生物化学实验(Biochemistry Lab)/Week 3/图3.xlsx
+++ b/生物化学实验(Biochemistry Lab)/Week 3/图3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiyuliu/Desktop/PKU-Undergraduate-Course-Public/生物化学实验(Biochemistry Lab)/Week 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA5163A-7EED-CA4A-818B-CA056120037E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B09FB9-8C0A-D245-B72C-1458A53CC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{75B03B63-87D4-7942-8709-DEDE072515C1}"/>
   </bookViews>
@@ -47,13 +47,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,8 +121,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4300485564304462"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.40227077865266841"/>
+          <c:y val="4.6296296296296294E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -219,16 +226,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.6899999999999996E-2</c:v>
+                  <c:v>0.10730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8699999999999996E-2</c:v>
+                  <c:v>0.1303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1066</c:v>
+                  <c:v>0.1216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11749999999999999</c:v>
+                  <c:v>0.1399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,8 +381,8 @@
         <c:axId val="264207328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.12000000000000001"/>
-          <c:min val="7.0000000000000007E-2"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1449,7 +1456,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,8 +1473,8 @@
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>7.6899999999999996E-2</v>
+      <c r="B2" s="1">
+        <v>0.10730000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1482,7 @@
         <v>6.5</v>
       </c>
       <c r="B3">
-        <v>9.8699999999999996E-2</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1066</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1498,7 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>0.11749999999999999</v>
+        <v>0.1399</v>
       </c>
     </row>
   </sheetData>
